--- a/data/league_data/spain/21/spain_passing.xlsx
+++ b/data/league_data/spain/21/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD7D835-F2A1-684F-95D6-D7833A5923CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA6E29-0118-014D-AAD4-1DE35A76F00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="599">
   <si>
     <t>Rk</t>
   </si>
@@ -1525,9 +1525,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1570,9 +1567,6 @@
     <t>Kenan Kodro</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Okay Yokuşlu</t>
   </si>
   <si>
@@ -1808,6 +1802,21 @@
   </si>
   <si>
     <t>Eugeni Valderrama</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
@@ -2677,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17896,7 +17905,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>243</v>
+        <v>594</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>28</v>
@@ -21300,7 +21309,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>283</v>
+        <v>596</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>28</v>
@@ -25808,7 +25817,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>334</v>
+        <v>595</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>28</v>
@@ -40118,7 +40127,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>28</v>
@@ -40210,7 +40219,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>21</v>
@@ -40302,7 +40311,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>28</v>
@@ -40394,7 +40403,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>69</v>
@@ -40486,7 +40495,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>110</v>
@@ -40578,10 +40587,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>507</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>52</v>
@@ -40670,7 +40679,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>28</v>
@@ -40854,7 +40863,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>28</v>
@@ -40946,7 +40955,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>352</v>
@@ -41038,7 +41047,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>61</v>
@@ -41130,7 +41139,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>61</v>
@@ -41222,7 +41231,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>28</v>
@@ -41314,7 +41323,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>66</v>
@@ -41406,7 +41415,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>482</v>
@@ -41498,7 +41507,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>28</v>
@@ -41590,7 +41599,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>352</v>
@@ -41682,7 +41691,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>28</v>
@@ -41774,7 +41783,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>28</v>
@@ -41866,7 +41875,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>28</v>
@@ -41958,10 +41967,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>22</v>
@@ -42050,7 +42059,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>28</v>
@@ -42142,7 +42151,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>28</v>
@@ -42326,7 +42335,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>28</v>
@@ -42418,7 +42427,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>28</v>
@@ -42510,7 +42519,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>28</v>
@@ -42602,7 +42611,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>28</v>
@@ -42694,7 +42703,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>28</v>
@@ -42786,7 +42795,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>28</v>
@@ -42878,7 +42887,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>28</v>
@@ -42970,7 +42979,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>47</v>
@@ -43062,7 +43071,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>456</v>
@@ -43154,7 +43163,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>28</v>
@@ -43246,7 +43255,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>28</v>
@@ -43338,7 +43347,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>61</v>
@@ -43430,7 +43439,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>28</v>
@@ -43522,7 +43531,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>28</v>
@@ -43612,7 +43621,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>61</v>
@@ -43704,7 +43713,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>28</v>
@@ -43796,7 +43805,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>93</v>
@@ -43888,7 +43897,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>28</v>
@@ -43980,7 +43989,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>64</v>
@@ -44072,7 +44081,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>28</v>
@@ -44164,7 +44173,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>28</v>
@@ -44256,7 +44265,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>61</v>
@@ -44440,7 +44449,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>28</v>
@@ -44532,7 +44541,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>28</v>
@@ -44624,7 +44633,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>28</v>
@@ -44716,7 +44725,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>28</v>
@@ -44808,7 +44817,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>28</v>
@@ -44900,7 +44909,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>28</v>
@@ -44992,7 +45001,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>28</v>
@@ -45084,7 +45093,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>28</v>
@@ -45176,7 +45185,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>28</v>
@@ -45268,7 +45277,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>64</v>
@@ -45360,7 +45369,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>28</v>
@@ -45452,7 +45461,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>28</v>
@@ -45544,7 +45553,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>28</v>
@@ -45636,7 +45645,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>28</v>
@@ -45686,7 +45695,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>28</v>
@@ -45778,10 +45787,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>114</v>
@@ -45870,7 +45879,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>28</v>
@@ -45962,7 +45971,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>28</v>
@@ -46054,7 +46063,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>28</v>
@@ -46146,7 +46155,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>182</v>
@@ -46238,7 +46247,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>61</v>
@@ -46330,10 +46339,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>62</v>
@@ -46422,7 +46431,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>69</v>
@@ -46514,7 +46523,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>356</v>
@@ -46606,7 +46615,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>28</v>
@@ -46698,13 +46707,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>41</v>
@@ -46790,7 +46799,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>28</v>
@@ -46882,7 +46891,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>93</v>
@@ -46974,7 +46983,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>28</v>
@@ -47066,7 +47075,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>93</v>
@@ -47158,7 +47167,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>61</v>
@@ -47250,7 +47259,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>28</v>
@@ -47342,7 +47351,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>28</v>
@@ -47434,7 +47443,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>28</v>
@@ -47526,7 +47535,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>61</v>
@@ -47618,7 +47627,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>47</v>
@@ -47710,7 +47719,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>28</v>
@@ -47802,7 +47811,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>28</v>
@@ -47894,7 +47903,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>28</v>
@@ -47986,10 +47995,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>37</v>
@@ -48078,7 +48087,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>341</v>
@@ -48170,7 +48179,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>28</v>
@@ -48262,7 +48271,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>28</v>
@@ -48354,7 +48363,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>28</v>
@@ -48446,7 +48455,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>28</v>
@@ -48538,7 +48547,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>28</v>

--- a/data/league_data/spain/21/spain_passing.xlsx
+++ b/data/league_data/spain/21/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA6E29-0118-014D-AAD4-1DE35A76F00F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B961D-3C5E-8944-A840-5B4ECCDD8097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,9 +937,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2686,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17905,7 +17905,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>28</v>
@@ -21309,7 +21309,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>28</v>
@@ -23241,7 +23241,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>305</v>
+        <v>598</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>28</v>
@@ -23333,7 +23333,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>28</v>
@@ -23425,7 +23425,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>28</v>
@@ -23517,7 +23517,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>61</v>
@@ -23609,7 +23609,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>28</v>
@@ -23701,7 +23701,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>28</v>
@@ -23793,7 +23793,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>28</v>
@@ -23885,7 +23885,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>28</v>
@@ -23977,7 +23977,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>259</v>
@@ -24069,10 +24069,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>62</v>
@@ -24161,7 +24161,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>28</v>
@@ -24253,7 +24253,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>69</v>
@@ -24345,7 +24345,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>28</v>
@@ -24437,7 +24437,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>64</v>
@@ -24529,7 +24529,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>119</v>
@@ -24621,7 +24621,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>66</v>
@@ -24713,7 +24713,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>28</v>
@@ -24805,7 +24805,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>28</v>
@@ -24897,7 +24897,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>28</v>
@@ -24989,7 +24989,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>28</v>
@@ -25081,7 +25081,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>28</v>
@@ -25173,7 +25173,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>28</v>
@@ -25265,7 +25265,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>28</v>
@@ -25357,7 +25357,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>28</v>
@@ -25449,7 +25449,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>28</v>
@@ -25541,7 +25541,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>28</v>
@@ -25633,7 +25633,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>28</v>
@@ -25725,7 +25725,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>28</v>
@@ -25817,7 +25817,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>28</v>
@@ -25909,7 +25909,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>28</v>
@@ -26001,7 +26001,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>28</v>
@@ -26093,7 +26093,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>28</v>
@@ -26185,7 +26185,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>76</v>
@@ -26277,7 +26277,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>28</v>
@@ -26369,10 +26369,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>114</v>
@@ -26461,7 +26461,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>64</v>
@@ -26553,7 +26553,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>28</v>
@@ -26645,7 +26645,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>28</v>
@@ -26737,7 +26737,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>28</v>
@@ -26829,7 +26829,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>28</v>
@@ -26921,7 +26921,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>69</v>
@@ -27013,7 +27013,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>189</v>
@@ -27105,7 +27105,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>69</v>
@@ -27197,7 +27197,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>166</v>
@@ -27289,10 +27289,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>52</v>
@@ -27381,7 +27381,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>28</v>
@@ -27473,7 +27473,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>28</v>
@@ -27565,10 +27565,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>40</v>
@@ -27657,7 +27657,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>28</v>
@@ -27749,7 +27749,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>28</v>
@@ -27841,7 +27841,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>28</v>
@@ -27933,7 +27933,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>28</v>
@@ -28025,7 +28025,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>28</v>
@@ -28117,7 +28117,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>28</v>
@@ -28209,7 +28209,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>43</v>
@@ -28301,10 +28301,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>62</v>
@@ -28485,7 +28485,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>28</v>
@@ -28577,7 +28577,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>28</v>
@@ -28669,7 +28669,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>61</v>
@@ -28761,7 +28761,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>93</v>
@@ -28853,10 +28853,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>40</v>
@@ -28945,7 +28945,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>28</v>
@@ -29037,7 +29037,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>119</v>
@@ -29129,7 +29129,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>28</v>
@@ -29221,7 +29221,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>64</v>
@@ -29313,7 +29313,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>28</v>
@@ -29405,7 +29405,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>28</v>
@@ -29497,7 +29497,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>73</v>
@@ -29589,7 +29589,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>66</v>
@@ -29681,10 +29681,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>40</v>
@@ -29773,7 +29773,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>61</v>
@@ -29865,7 +29865,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>28</v>
@@ -29957,7 +29957,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>28</v>
@@ -30049,7 +30049,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>61</v>
@@ -30141,7 +30141,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>28</v>
@@ -30233,7 +30233,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>66</v>
@@ -30325,7 +30325,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>93</v>
@@ -30417,7 +30417,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>28</v>
@@ -30509,7 +30509,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>66</v>
@@ -30601,7 +30601,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>271</v>
@@ -30693,7 +30693,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>271</v>
@@ -30785,7 +30785,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>47</v>
@@ -30877,7 +30877,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>28</v>
@@ -30969,7 +30969,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>28</v>
@@ -31061,7 +31061,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>28</v>
@@ -31153,7 +31153,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>61</v>
@@ -31245,7 +31245,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>28</v>
@@ -31337,10 +31337,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>37</v>
@@ -31429,7 +31429,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>93</v>
@@ -31521,7 +31521,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>64</v>
@@ -31613,7 +31613,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>28</v>
@@ -31705,7 +31705,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>66</v>
@@ -31797,7 +31797,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>47</v>
@@ -31889,7 +31889,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>28</v>
@@ -31981,7 +31981,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>21</v>
@@ -32073,7 +32073,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>61</v>
@@ -32165,7 +32165,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>28</v>
@@ -32257,7 +32257,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>66</v>
@@ -32349,7 +32349,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>28</v>
@@ -32441,7 +32441,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>28</v>
@@ -32533,7 +32533,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>28</v>
@@ -32625,7 +32625,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>28</v>
@@ -32717,7 +32717,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>28</v>
@@ -32809,7 +32809,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>28</v>
@@ -32901,7 +32901,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>28</v>
@@ -32993,10 +32993,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>52</v>
@@ -33085,7 +33085,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>28</v>
@@ -33177,7 +33177,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>61</v>
@@ -33269,7 +33269,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>28</v>
@@ -33361,7 +33361,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>28</v>
@@ -33453,7 +33453,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>28</v>
@@ -33545,7 +33545,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>47</v>
@@ -33637,7 +33637,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>28</v>
@@ -33729,7 +33729,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>28</v>
@@ -33821,7 +33821,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>76</v>
@@ -33913,7 +33913,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>43</v>
@@ -34005,7 +34005,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>28</v>
@@ -34097,7 +34097,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>28</v>
@@ -34189,7 +34189,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>66</v>
@@ -34281,7 +34281,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>28</v>
@@ -34373,7 +34373,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>240</v>
@@ -34465,7 +34465,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>166</v>
@@ -34557,7 +34557,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>47</v>
@@ -34649,7 +34649,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>28</v>
@@ -34741,7 +34741,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>76</v>
@@ -34833,7 +34833,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>28</v>
@@ -34925,7 +34925,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>28</v>
@@ -35017,7 +35017,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>28</v>
@@ -35109,7 +35109,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>28</v>
@@ -35201,7 +35201,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>28</v>
@@ -35293,7 +35293,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>28</v>
@@ -35385,7 +35385,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>28</v>
@@ -35477,7 +35477,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>28</v>
@@ -35569,7 +35569,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>81</v>
@@ -35661,7 +35661,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>28</v>
@@ -35753,7 +35753,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>271</v>
@@ -35845,7 +35845,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>28</v>
@@ -35937,7 +35937,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>28</v>
@@ -36029,10 +36029,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C363" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>453</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>37</v>
@@ -36121,7 +36121,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>119</v>
@@ -36213,10 +36213,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>37</v>
@@ -36305,7 +36305,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>28</v>
@@ -36397,7 +36397,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>28</v>
@@ -36489,7 +36489,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>28</v>
@@ -36581,7 +36581,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>119</v>
@@ -36673,7 +36673,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>64</v>
@@ -36765,7 +36765,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>61</v>
@@ -36857,7 +36857,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>28</v>
@@ -36949,7 +36949,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>61</v>
@@ -37041,7 +37041,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>28</v>
@@ -37133,7 +37133,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>28</v>
@@ -37225,7 +37225,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>28</v>
@@ -37317,7 +37317,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>61</v>
@@ -37409,7 +37409,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>28</v>
@@ -37501,7 +37501,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>93</v>
@@ -37593,7 +37593,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>66</v>
@@ -37685,7 +37685,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>66</v>
@@ -37777,7 +37777,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>166</v>
@@ -37869,7 +37869,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>93</v>
@@ -37919,7 +37919,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>66</v>
@@ -38011,7 +38011,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>43</v>
@@ -38103,7 +38103,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>28</v>
@@ -38195,7 +38195,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>28</v>
@@ -38287,7 +38287,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>64</v>
@@ -38379,7 +38379,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>28</v>
@@ -38471,7 +38471,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>66</v>
@@ -38563,10 +38563,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>482</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>37</v>
@@ -38655,7 +38655,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>64</v>
@@ -38747,10 +38747,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="D393" s="4" t="s">
         <v>114</v>
@@ -38839,10 +38839,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C394" s="4" t="s">
         <v>486</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>487</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>40</v>
@@ -38931,7 +38931,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>28</v>
@@ -39023,7 +39023,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>28</v>
@@ -39115,7 +39115,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>69</v>
@@ -39207,7 +39207,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>28</v>
@@ -39299,7 +39299,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>28</v>
@@ -39391,7 +39391,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>28</v>
@@ -39483,7 +39483,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>28</v>
@@ -39575,7 +39575,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>28</v>
@@ -39667,7 +39667,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>28</v>
@@ -39759,7 +39759,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>28</v>
@@ -39851,7 +39851,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>28</v>
@@ -39943,7 +39943,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>28</v>
@@ -40035,7 +40035,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>69</v>
@@ -40127,7 +40127,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>28</v>
@@ -40219,7 +40219,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>21</v>
@@ -40311,7 +40311,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>28</v>
@@ -40403,7 +40403,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>69</v>
@@ -40495,7 +40495,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>110</v>
@@ -40587,10 +40587,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>52</v>
@@ -40679,7 +40679,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>28</v>
@@ -40863,7 +40863,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>28</v>
@@ -40955,10 +40955,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>62</v>
@@ -41047,7 +41047,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>61</v>
@@ -41139,7 +41139,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>61</v>
@@ -41231,7 +41231,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>28</v>
@@ -41323,7 +41323,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>66</v>
@@ -41415,10 +41415,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>62</v>
@@ -41507,7 +41507,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>28</v>
@@ -41599,10 +41599,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>37</v>
@@ -41691,7 +41691,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>28</v>
@@ -41783,7 +41783,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>28</v>
@@ -41875,7 +41875,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>28</v>
@@ -41967,10 +41967,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>519</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>520</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>22</v>
@@ -42059,7 +42059,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>28</v>
@@ -42151,7 +42151,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>28</v>
@@ -42243,10 +42243,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>484</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>37</v>
@@ -42335,7 +42335,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>28</v>
@@ -42427,7 +42427,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>28</v>
@@ -42519,7 +42519,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>28</v>
@@ -42611,7 +42611,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>28</v>
@@ -42703,7 +42703,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>28</v>
@@ -42795,7 +42795,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>28</v>
@@ -42887,7 +42887,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>28</v>
@@ -42979,7 +42979,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>47</v>
@@ -43071,10 +43071,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>37</v>
@@ -43163,7 +43163,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>28</v>
@@ -43255,7 +43255,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>28</v>
@@ -43347,7 +43347,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>61</v>
@@ -43439,7 +43439,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>28</v>
@@ -43531,7 +43531,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>28</v>
@@ -43621,7 +43621,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>61</v>
@@ -43713,7 +43713,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>28</v>
@@ -43805,7 +43805,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>93</v>
@@ -43897,7 +43897,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>28</v>
@@ -43989,7 +43989,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>64</v>
@@ -44081,7 +44081,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>28</v>
@@ -44173,7 +44173,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>28</v>
@@ -44265,7 +44265,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>61</v>
@@ -44357,7 +44357,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>271</v>
@@ -44449,7 +44449,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>28</v>
@@ -44541,7 +44541,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>28</v>
@@ -44633,7 +44633,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>28</v>
@@ -44725,7 +44725,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>28</v>
@@ -44817,7 +44817,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>28</v>
@@ -44909,7 +44909,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>28</v>
@@ -45001,7 +45001,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>28</v>
@@ -45093,7 +45093,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>28</v>
@@ -45185,7 +45185,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>28</v>
@@ -45277,7 +45277,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>64</v>
@@ -45369,7 +45369,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>28</v>
@@ -45461,7 +45461,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>28</v>
@@ -45553,7 +45553,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>28</v>
@@ -45645,7 +45645,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>28</v>
@@ -45695,7 +45695,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>28</v>
@@ -45787,10 +45787,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>560</v>
-      </c>
-      <c r="C470" s="4" t="s">
-        <v>561</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>114</v>
@@ -45879,7 +45879,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>28</v>
@@ -45971,7 +45971,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>28</v>
@@ -46063,7 +46063,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>28</v>
@@ -46155,7 +46155,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>182</v>
@@ -46247,7 +46247,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>61</v>
@@ -46339,10 +46339,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>567</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>62</v>
@@ -46431,7 +46431,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>69</v>
@@ -46523,10 +46523,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>37</v>
@@ -46615,7 +46615,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>28</v>
@@ -46707,13 +46707,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>41</v>
@@ -46799,7 +46799,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>28</v>
@@ -46891,7 +46891,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>93</v>
@@ -46983,7 +46983,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>28</v>
@@ -47075,7 +47075,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>93</v>
@@ -47167,7 +47167,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>61</v>
@@ -47259,7 +47259,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>28</v>
@@ -47351,7 +47351,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>28</v>
@@ -47443,7 +47443,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>28</v>
@@ -47535,7 +47535,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>61</v>
@@ -47627,7 +47627,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>47</v>
@@ -47719,7 +47719,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>28</v>
@@ -47811,7 +47811,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>28</v>
@@ -47903,7 +47903,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>28</v>
@@ -47995,10 +47995,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>587</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>37</v>
@@ -48087,10 +48087,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>114</v>
@@ -48179,7 +48179,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>28</v>
@@ -48271,7 +48271,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>28</v>
@@ -48363,7 +48363,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>28</v>
@@ -48455,7 +48455,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>28</v>
@@ -48547,7 +48547,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>28</v>

--- a/data/league_data/spain/21/spain_passing.xlsx
+++ b/data/league_data/spain/21/spain_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8B961D-3C5E-8944-A840-5B4ECCDD8097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A12CF0-9FD8-F042-9A1E-324DF5811259}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>fr FRA</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2686,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4657,16 +4657,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F22" s="4">
         <v>21</v>
@@ -4749,10 +4749,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>37</v>
@@ -4841,7 +4841,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>64</v>
@@ -4850,7 +4850,7 @@
         <v>40</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4">
         <v>21</v>
@@ -4933,16 +4933,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="4">
         <v>31</v>
@@ -5025,16 +5025,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="4">
         <v>29</v>
@@ -5117,7 +5117,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>28</v>
@@ -5209,7 +5209,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>28</v>
@@ -5301,7 +5301,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>28</v>
@@ -5393,10 +5393,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>40</v>
@@ -5485,10 +5485,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>40</v>
@@ -5577,7 +5577,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>28</v>
@@ -5586,7 +5586,7 @@
         <v>40</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="4">
         <v>31</v>
@@ -5669,7 +5669,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>64</v>
@@ -5761,10 +5761,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>37</v>
@@ -5853,7 +5853,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>28</v>
@@ -5945,7 +5945,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>61</v>
@@ -5954,7 +5954,7 @@
         <v>22</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="4">
         <v>27</v>
@@ -6037,7 +6037,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>28</v>
@@ -6129,16 +6129,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F38" s="4">
         <v>26</v>
@@ -6221,7 +6221,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>28</v>
@@ -6230,7 +6230,7 @@
         <v>52</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="4">
         <v>32</v>
@@ -6313,7 +6313,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>28</v>
@@ -6322,7 +6322,7 @@
         <v>37</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" s="4">
         <v>23</v>
@@ -6405,7 +6405,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>61</v>
@@ -6414,7 +6414,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="4">
         <v>26</v>
@@ -6497,7 +6497,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>28</v>
@@ -6506,7 +6506,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F42" s="4">
         <v>26</v>
@@ -6589,7 +6589,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>28</v>
@@ -6598,7 +6598,7 @@
         <v>40</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="4">
         <v>25</v>
@@ -6681,7 +6681,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>28</v>
@@ -6690,7 +6690,7 @@
         <v>40</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="4">
         <v>34</v>
@@ -6773,7 +6773,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>28</v>
@@ -6865,16 +6865,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F46" s="4">
         <v>27</v>
@@ -6957,10 +6957,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>22</v>
@@ -7049,7 +7049,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>28</v>
@@ -7058,7 +7058,7 @@
         <v>40</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" s="4">
         <v>28</v>
@@ -7141,7 +7141,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>64</v>
@@ -7233,10 +7233,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>37</v>
@@ -7325,7 +7325,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>28</v>
@@ -7334,7 +7334,7 @@
         <v>37</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="4">
         <v>23</v>
@@ -7417,7 +7417,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>47</v>
@@ -7509,13 +7509,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>41</v>
@@ -7601,16 +7601,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54" s="4">
         <v>29</v>
@@ -7693,7 +7693,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>64</v>
@@ -7785,7 +7785,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>28</v>
@@ -7794,7 +7794,7 @@
         <v>22</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56" s="4">
         <v>28</v>
@@ -7877,16 +7877,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F57" s="4">
         <v>28</v>
@@ -7969,16 +7969,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F58" s="4">
         <v>25</v>
@@ -8061,7 +8061,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>61</v>
@@ -8070,7 +8070,7 @@
         <v>52</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F59" s="4">
         <v>24</v>
@@ -8153,16 +8153,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F60" s="4">
         <v>23</v>
@@ -8245,16 +8245,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F61" s="4">
         <v>23</v>
@@ -8337,7 +8337,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>28</v>
@@ -8429,7 +8429,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>64</v>
@@ -8438,7 +8438,7 @@
         <v>40</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="4">
         <v>27</v>
@@ -8521,7 +8521,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>28</v>
@@ -8613,7 +8613,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>61</v>
@@ -8622,7 +8622,7 @@
         <v>37</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F65" s="4">
         <v>30</v>
@@ -8705,16 +8705,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F66" s="4">
         <v>26</v>
@@ -8797,10 +8797,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>40</v>
@@ -8889,7 +8889,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>28</v>
@@ -8898,7 +8898,7 @@
         <v>40</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F68" s="4">
         <v>33</v>
@@ -8981,7 +8981,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>28</v>
@@ -9073,7 +9073,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>61</v>
@@ -9082,7 +9082,7 @@
         <v>52</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F70" s="4">
         <v>26</v>
@@ -9165,16 +9165,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" s="4">
         <v>27</v>
@@ -9257,16 +9257,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F72" s="4">
         <v>27</v>
@@ -9349,7 +9349,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>28</v>
@@ -9358,7 +9358,7 @@
         <v>22</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" s="4">
         <v>29</v>
@@ -9441,10 +9441,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>40</v>
@@ -9533,16 +9533,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" s="4">
         <v>28</v>
@@ -9625,7 +9625,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>64</v>
@@ -9717,7 +9717,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>28</v>
@@ -9726,7 +9726,7 @@
         <v>40</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="4">
         <v>29</v>
@@ -9809,16 +9809,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F78" s="4">
         <v>33</v>
@@ -9901,7 +9901,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>28</v>
@@ -9910,7 +9910,7 @@
         <v>40</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F79" s="4">
         <v>27</v>
@@ -9993,7 +9993,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>28</v>
@@ -10085,7 +10085,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>28</v>
@@ -10177,13 +10177,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>35</v>
@@ -10269,7 +10269,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>28</v>
@@ -10361,16 +10361,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F84" s="4">
         <v>33</v>
@@ -10453,13 +10453,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>54</v>
@@ -10545,7 +10545,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>28</v>
@@ -10637,7 +10637,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>28</v>
@@ -10729,7 +10729,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>28</v>
@@ -10738,7 +10738,7 @@
         <v>22</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F88" s="4">
         <v>29</v>
@@ -10821,7 +10821,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>28</v>
@@ -10913,16 +10913,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F90" s="4">
         <v>29</v>
@@ -11005,7 +11005,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>28</v>
@@ -11097,10 +11097,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>52</v>
@@ -11189,16 +11189,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F93" s="4">
         <v>29</v>
@@ -11281,7 +11281,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>61</v>
@@ -11373,7 +11373,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>64</v>
@@ -11465,10 +11465,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>40</v>
@@ -11557,7 +11557,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>28</v>
@@ -11649,7 +11649,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>28</v>
@@ -11658,7 +11658,7 @@
         <v>62</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98" s="4">
         <v>33</v>
@@ -11741,16 +11741,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F99" s="4">
         <v>28</v>
@@ -11833,10 +11833,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>40</v>
@@ -11925,7 +11925,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>28</v>
@@ -11934,7 +11934,7 @@
         <v>52</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F101" s="4">
         <v>24</v>
@@ -12017,7 +12017,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>28</v>
@@ -12109,7 +12109,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>28</v>
@@ -12201,7 +12201,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>28</v>
@@ -12210,7 +12210,7 @@
         <v>37</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F104" s="4">
         <v>26</v>
@@ -12293,7 +12293,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>61</v>
@@ -12385,7 +12385,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>28</v>
@@ -12394,7 +12394,7 @@
         <v>44</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F106" s="4">
         <v>30</v>
@@ -12477,16 +12477,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F107" s="4">
         <v>28</v>
@@ -12569,7 +12569,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>28</v>
@@ -12661,7 +12661,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>28</v>
@@ -12753,7 +12753,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>28</v>
@@ -12845,16 +12845,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D111" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F111" s="4">
         <v>25</v>
@@ -12937,7 +12937,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>28</v>
@@ -13029,10 +13029,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>52</v>
@@ -13121,16 +13121,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F114" s="4">
         <v>24</v>
@@ -13213,7 +13213,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>61</v>
@@ -13222,7 +13222,7 @@
         <v>40</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F115" s="4">
         <v>28</v>
@@ -13305,10 +13305,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>37</v>
@@ -13397,10 +13397,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="D117" s="4" t="s">
         <v>44</v>
@@ -13489,16 +13489,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F118" s="4">
         <v>23</v>
@@ -13581,16 +13581,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D119" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F119" s="4">
         <v>22</v>
@@ -13673,16 +13673,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F120" s="4">
         <v>26</v>
@@ -13765,16 +13765,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F121" s="4">
         <v>23</v>
@@ -13857,13 +13857,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>33</v>
@@ -13949,13 +13949,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>48</v>
@@ -14041,7 +14041,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>28</v>
@@ -14050,7 +14050,7 @@
         <v>40</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F124" s="4">
         <v>30</v>
@@ -14133,7 +14133,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>28</v>
@@ -14142,7 +14142,7 @@
         <v>40</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F125" s="4">
         <v>30</v>
@@ -14225,7 +14225,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>28</v>
@@ -14234,7 +14234,7 @@
         <v>22</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F126" s="4">
         <v>31</v>
@@ -14317,7 +14317,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>28</v>
@@ -14326,7 +14326,7 @@
         <v>40</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F127" s="4">
         <v>33</v>
@@ -14409,16 +14409,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F128" s="4">
         <v>32</v>
@@ -14501,7 +14501,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>28</v>
@@ -14510,7 +14510,7 @@
         <v>52</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F129" s="4">
         <v>26</v>
@@ -14593,7 +14593,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>64</v>
@@ -14685,7 +14685,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>28</v>
@@ -14694,7 +14694,7 @@
         <v>52</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F131" s="4">
         <v>29</v>
@@ -14777,7 +14777,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>28</v>
@@ -14786,7 +14786,7 @@
         <v>52</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F132" s="4">
         <v>34</v>
@@ -14869,16 +14869,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F133" s="4">
         <v>23</v>
@@ -14961,7 +14961,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>28</v>
@@ -15053,13 +15053,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>48</v>
@@ -15145,7 +15145,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>47</v>
@@ -15154,7 +15154,7 @@
         <v>37</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F136" s="4">
         <v>22</v>
@@ -15237,7 +15237,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>28</v>
@@ -15329,13 +15329,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>26</v>
@@ -15421,7 +15421,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>28</v>
@@ -15430,7 +15430,7 @@
         <v>37</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F139" s="4">
         <v>29</v>
@@ -15513,7 +15513,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>28</v>
@@ -15522,7 +15522,7 @@
         <v>62</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F140" s="4">
         <v>28</v>
@@ -15605,7 +15605,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>28</v>
@@ -15614,7 +15614,7 @@
         <v>40</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F141" s="4">
         <v>31</v>
@@ -15697,7 +15697,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>28</v>
@@ -15789,16 +15789,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="D143" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F143" s="4">
         <v>34</v>
@@ -15881,7 +15881,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>28</v>
@@ -15973,16 +15973,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D145" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F145" s="4">
         <v>21</v>
@@ -16065,16 +16065,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F146" s="4">
         <v>24</v>
@@ -16157,10 +16157,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>37</v>
@@ -16249,7 +16249,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>28</v>
@@ -16341,7 +16341,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>28</v>
@@ -16433,13 +16433,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>31</v>
@@ -16525,7 +16525,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>28</v>
@@ -16617,7 +16617,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>28</v>
@@ -16709,7 +16709,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>64</v>
@@ -16718,7 +16718,7 @@
         <v>40</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F153" s="4">
         <v>23</v>
@@ -16801,7 +16801,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>28</v>
@@ -16893,7 +16893,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>28</v>
@@ -16985,7 +16985,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>28</v>
@@ -16994,7 +16994,7 @@
         <v>40</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F156" s="4">
         <v>24</v>
@@ -17077,16 +17077,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>233</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F157" s="4">
         <v>31</v>
@@ -17169,10 +17169,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>40</v>
@@ -17261,7 +17261,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>28</v>
@@ -17353,7 +17353,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>28</v>
@@ -17445,7 +17445,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>28</v>
@@ -17537,7 +17537,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>28</v>
@@ -17629,10 +17629,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C163" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>40</v>
@@ -17721,16 +17721,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F164" s="4">
         <v>27</v>
@@ -17813,16 +17813,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F165" s="4">
         <v>23</v>
@@ -17905,7 +17905,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>28</v>
@@ -17997,7 +17997,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>28</v>
@@ -18006,7 +18006,7 @@
         <v>40</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F167" s="4">
         <v>20</v>
@@ -18089,7 +18089,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>28</v>
@@ -18181,7 +18181,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>28</v>
@@ -18190,7 +18190,7 @@
         <v>62</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F169" s="4">
         <v>27</v>
@@ -18273,10 +18273,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>52</v>
@@ -18365,7 +18365,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>28</v>
@@ -18457,7 +18457,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>28</v>
@@ -18466,7 +18466,7 @@
         <v>40</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F172" s="4">
         <v>24</v>
@@ -18549,7 +18549,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>28</v>
@@ -18641,7 +18641,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>28</v>
@@ -18733,7 +18733,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>28</v>
@@ -18825,7 +18825,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>28</v>
@@ -18834,7 +18834,7 @@
         <v>37</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F176" s="4">
         <v>27</v>
@@ -18917,13 +18917,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>33</v>
@@ -19009,16 +19009,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F178" s="4">
         <v>29</v>
@@ -19101,7 +19101,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>28</v>
@@ -19110,7 +19110,7 @@
         <v>44</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F179" s="4">
         <v>30</v>
@@ -19193,7 +19193,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>28</v>
@@ -19285,10 +19285,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>40</v>
@@ -19377,7 +19377,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>28</v>
@@ -19469,13 +19469,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>41</v>
@@ -19561,7 +19561,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>28</v>
@@ -19653,7 +19653,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>28</v>
@@ -19745,7 +19745,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>28</v>
@@ -19837,7 +19837,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>28</v>
@@ -19929,16 +19929,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F188" s="4">
         <v>26</v>
@@ -20021,13 +20021,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>23</v>
@@ -20113,7 +20113,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>61</v>
@@ -20122,7 +20122,7 @@
         <v>40</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F190" s="4">
         <v>29</v>
@@ -20205,13 +20205,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C191" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>48</v>
@@ -20297,7 +20297,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>28</v>
@@ -20306,7 +20306,7 @@
         <v>40</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F192" s="4">
         <v>31</v>
@@ -20389,16 +20389,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F193" s="4">
         <v>37</v>
@@ -20481,7 +20481,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>28</v>
@@ -20490,7 +20490,7 @@
         <v>40</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F194" s="4">
         <v>24</v>
@@ -20573,7 +20573,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>28</v>
@@ -20582,7 +20582,7 @@
         <v>52</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F195" s="4">
         <v>29</v>
@@ -20665,7 +20665,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>28</v>
@@ -20674,7 +20674,7 @@
         <v>40</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F196" s="4">
         <v>26</v>
@@ -20757,7 +20757,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>28</v>
@@ -20766,7 +20766,7 @@
         <v>40</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F197" s="4">
         <v>27</v>
@@ -20849,7 +20849,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>28</v>
@@ -20858,7 +20858,7 @@
         <v>22</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F198" s="4">
         <v>23</v>
@@ -20941,13 +20941,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>45</v>
@@ -21033,10 +21033,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D200" s="4" t="s">
         <v>40</v>
@@ -21125,7 +21125,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>28</v>
@@ -21134,7 +21134,7 @@
         <v>37</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F201" s="4">
         <v>31</v>
@@ -21217,7 +21217,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>28</v>
@@ -21309,7 +21309,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>28</v>
@@ -21401,7 +21401,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>28</v>
@@ -21410,7 +21410,7 @@
         <v>40</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F204" s="4">
         <v>31</v>
@@ -21493,7 +21493,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>28</v>
@@ -21585,7 +21585,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>28</v>
@@ -21677,7 +21677,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>28</v>
@@ -21769,7 +21769,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>28</v>
@@ -21778,7 +21778,7 @@
         <v>40</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F208" s="4">
         <v>29</v>
@@ -21861,16 +21861,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C209" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F209" s="4">
         <v>25</v>
@@ -21953,7 +21953,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>28</v>
@@ -22045,7 +22045,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>28</v>
@@ -22054,7 +22054,7 @@
         <v>52</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F211" s="4">
         <v>22</v>
@@ -22137,16 +22137,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F212" s="4">
         <v>22</v>
@@ -22229,7 +22229,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>28</v>
@@ -22238,7 +22238,7 @@
         <v>40</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F213" s="4">
         <v>20</v>
@@ -22321,7 +22321,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>28</v>
@@ -22330,7 +22330,7 @@
         <v>22</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F214" s="4">
         <v>25</v>
@@ -22413,10 +22413,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>52</v>
@@ -22505,7 +22505,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>28</v>
@@ -22514,7 +22514,7 @@
         <v>40</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F216" s="4">
         <v>31</v>
@@ -22597,7 +22597,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>28</v>
@@ -22606,7 +22606,7 @@
         <v>22</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F217" s="4">
         <v>30</v>
@@ -22689,7 +22689,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>28</v>
@@ -22698,7 +22698,7 @@
         <v>62</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F218" s="4">
         <v>38</v>
@@ -22781,16 +22781,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D219" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F219" s="4">
         <v>26</v>
@@ -22873,7 +22873,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>28</v>
@@ -22882,7 +22882,7 @@
         <v>62</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F220" s="4">
         <v>24</v>
@@ -22965,7 +22965,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>28</v>
@@ -23057,7 +23057,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>28</v>
@@ -23149,10 +23149,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>62</v>
@@ -23241,7 +23241,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>28</v>
@@ -23333,13 +23333,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>31</v>
@@ -23425,7 +23425,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>28</v>
@@ -23517,7 +23517,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>61</v>
@@ -23609,7 +23609,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>28</v>
@@ -23618,7 +23618,7 @@
         <v>37</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F228" s="4">
         <v>29</v>
@@ -23701,7 +23701,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>28</v>
@@ -23793,7 +23793,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>28</v>
@@ -23802,7 +23802,7 @@
         <v>40</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F230" s="4">
         <v>23</v>
@@ -23885,7 +23885,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>28</v>
@@ -23977,16 +23977,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F232" s="4">
         <v>17</v>
@@ -24069,16 +24069,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C233" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="D233" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F233" s="4">
         <v>27</v>
@@ -24161,13 +24161,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>33</v>
@@ -24253,10 +24253,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>40</v>
@@ -24345,7 +24345,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>28</v>
@@ -24437,7 +24437,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>64</v>
@@ -24446,7 +24446,7 @@
         <v>37</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F237" s="4">
         <v>31</v>
@@ -24529,10 +24529,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>62</v>
@@ -24621,16 +24621,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F239" s="4">
         <v>24</v>
@@ -24713,7 +24713,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>28</v>
@@ -24722,7 +24722,7 @@
         <v>37</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F240" s="4">
         <v>23</v>
@@ -24805,7 +24805,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>28</v>
@@ -24814,7 +24814,7 @@
         <v>37</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F241" s="4">
         <v>32</v>
@@ -24897,7 +24897,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>28</v>
@@ -24989,7 +24989,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>28</v>
@@ -24998,7 +24998,7 @@
         <v>52</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F243" s="4">
         <v>35</v>
@@ -25081,13 +25081,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>41</v>
@@ -25173,7 +25173,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>28</v>
@@ -25265,16 +25265,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F246" s="4">
         <v>25</v>
@@ -25357,7 +25357,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>28</v>
@@ -25366,7 +25366,7 @@
         <v>52</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F247" s="4">
         <v>27</v>
@@ -25449,7 +25449,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>28</v>
@@ -25541,7 +25541,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>28</v>
@@ -25550,7 +25550,7 @@
         <v>37</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F249" s="4">
         <v>29</v>
@@ -25633,16 +25633,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F250" s="4">
         <v>25</v>
@@ -25725,7 +25725,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>28</v>
@@ -25734,7 +25734,7 @@
         <v>37</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F251" s="4">
         <v>21</v>
@@ -25817,7 +25817,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>28</v>
@@ -25909,7 +25909,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>28</v>
@@ -26001,7 +26001,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>28</v>
@@ -26093,7 +26093,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>28</v>
@@ -26185,16 +26185,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F256" s="4">
         <v>28</v>
@@ -26277,13 +26277,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>38</v>
@@ -26369,13 +26369,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C258" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C258" s="4" t="s">
-        <v>340</v>
-      </c>
       <c r="D258" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>35</v>
@@ -26461,13 +26461,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>26</v>
@@ -26553,7 +26553,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>28</v>
@@ -26562,7 +26562,7 @@
         <v>37</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F260" s="4">
         <v>32</v>
@@ -26645,13 +26645,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>33</v>
@@ -26737,7 +26737,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>28</v>
@@ -26829,7 +26829,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>28</v>
@@ -26838,7 +26838,7 @@
         <v>40</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F263" s="4">
         <v>23</v>
@@ -26921,10 +26921,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D264" s="4" t="s">
         <v>37</v>
@@ -27013,16 +27013,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F265" s="4">
         <v>22</v>
@@ -27105,10 +27105,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D266" s="4" t="s">
         <v>40</v>
@@ -27197,16 +27197,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F267" s="4">
         <v>33</v>
@@ -27289,10 +27289,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C268" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="D268" s="4" t="s">
         <v>52</v>
@@ -27381,13 +27381,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>29</v>
@@ -27473,7 +27473,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>28</v>
@@ -27482,7 +27482,7 @@
         <v>40</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F270" s="4">
         <v>25</v>
@@ -27565,16 +27565,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C271" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="D271" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F271" s="4">
         <v>24</v>
@@ -27657,7 +27657,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>28</v>
@@ -27666,7 +27666,7 @@
         <v>62</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F272" s="4">
         <v>39</v>
@@ -27749,7 +27749,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>28</v>
@@ -27841,7 +27841,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>28</v>
@@ -27850,7 +27850,7 @@
         <v>62</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F274" s="4">
         <v>28</v>
@@ -27933,7 +27933,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>28</v>
@@ -27942,7 +27942,7 @@
         <v>40</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F275" s="4">
         <v>25</v>
@@ -28025,7 +28025,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>28</v>
@@ -28034,7 +28034,7 @@
         <v>44</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F276" s="4">
         <v>26</v>
@@ -28117,7 +28117,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>28</v>
@@ -28209,7 +28209,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>43</v>
@@ -28218,7 +28218,7 @@
         <v>52</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F278" s="4">
         <v>29</v>
@@ -28301,16 +28301,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="D279" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F279" s="4">
         <v>19</v>
@@ -28393,16 +28393,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F280" s="4">
         <v>26</v>
@@ -28485,7 +28485,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>28</v>
@@ -28494,7 +28494,7 @@
         <v>37</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F281" s="4">
         <v>25</v>
@@ -28577,7 +28577,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>28</v>
@@ -28669,7 +28669,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>61</v>
@@ -28761,16 +28761,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F284" s="4">
         <v>28</v>
@@ -28853,16 +28853,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C285" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="D285" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F285" s="4">
         <v>24</v>
@@ -28945,16 +28945,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F286" s="4">
         <v>27</v>
@@ -29037,16 +29037,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D287" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F287" s="4">
         <v>27</v>
@@ -29129,7 +29129,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>28</v>
@@ -29221,7 +29221,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>64</v>
@@ -29313,7 +29313,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>28</v>
@@ -29405,7 +29405,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>28</v>
@@ -29414,7 +29414,7 @@
         <v>40</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F291" s="4">
         <v>30</v>
@@ -29497,10 +29497,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D292" s="4" t="s">
         <v>52</v>
@@ -29589,16 +29589,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D293" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E293" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F293" s="4">
         <v>23</v>
@@ -29681,10 +29681,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>380</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>40</v>
@@ -29773,13 +29773,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>35</v>
@@ -29865,7 +29865,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>28</v>
@@ -29874,7 +29874,7 @@
         <v>22</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F296" s="4">
         <v>34</v>
@@ -29957,7 +29957,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>28</v>
@@ -29966,7 +29966,7 @@
         <v>37</v>
       </c>
       <c r="E297" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F297" s="4">
         <v>23</v>
@@ -30049,16 +30049,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E298" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F298" s="4">
         <v>27</v>
@@ -30141,7 +30141,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>28</v>
@@ -30233,10 +30233,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>40</v>
@@ -30325,10 +30325,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>40</v>
@@ -30417,7 +30417,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>28</v>
@@ -30509,10 +30509,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>40</v>
@@ -30601,10 +30601,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>62</v>
@@ -30693,10 +30693,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>62</v>
@@ -30785,7 +30785,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>47</v>
@@ -30794,7 +30794,7 @@
         <v>37</v>
       </c>
       <c r="E306" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F306" s="4">
         <v>27</v>
@@ -30877,13 +30877,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>54</v>
@@ -30969,13 +30969,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>35</v>
@@ -31061,7 +31061,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>28</v>
@@ -31070,7 +31070,7 @@
         <v>62</v>
       </c>
       <c r="E309" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F309" s="4">
         <v>28</v>
@@ -31153,7 +31153,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>61</v>
@@ -31245,16 +31245,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F311" s="4">
         <v>26</v>
@@ -31337,16 +31337,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C312" s="4" t="s">
         <v>398</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>399</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E312" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F312" s="4">
         <v>29</v>
@@ -31429,10 +31429,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D313" s="4" t="s">
         <v>44</v>
@@ -31521,7 +31521,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>64</v>
@@ -31530,7 +31530,7 @@
         <v>52</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F314" s="4">
         <v>33</v>
@@ -31613,7 +31613,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>28</v>
@@ -31705,10 +31705,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D316" s="4" t="s">
         <v>40</v>
@@ -31797,7 +31797,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>47</v>
@@ -31806,7 +31806,7 @@
         <v>44</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F317" s="4">
         <v>28</v>
@@ -31889,7 +31889,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>28</v>
@@ -31981,7 +31981,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>21</v>
@@ -32073,7 +32073,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>61</v>
@@ -32082,7 +32082,7 @@
         <v>52</v>
       </c>
       <c r="E320" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F320" s="4">
         <v>29</v>
@@ -32165,7 +32165,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>28</v>
@@ -32174,7 +32174,7 @@
         <v>62</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F321" s="4">
         <v>26</v>
@@ -32257,10 +32257,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D322" s="4" t="s">
         <v>52</v>
@@ -32349,7 +32349,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>28</v>
@@ -32441,16 +32441,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F324" s="4">
         <v>25</v>
@@ -32533,7 +32533,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>28</v>
@@ -32625,7 +32625,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>28</v>
@@ -32634,7 +32634,7 @@
         <v>62</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F326" s="4">
         <v>23</v>
@@ -32717,7 +32717,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>28</v>
@@ -32726,7 +32726,7 @@
         <v>37</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F327" s="4">
         <v>32</v>
@@ -32809,13 +32809,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E328" s="4" t="s">
         <v>45</v>
@@ -32901,13 +32901,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>48</v>
@@ -32993,16 +32993,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>417</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>418</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F330" s="4">
         <v>24</v>
@@ -33085,7 +33085,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>28</v>
@@ -33177,16 +33177,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F332" s="4">
         <v>32</v>
@@ -33269,7 +33269,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>28</v>
@@ -33361,7 +33361,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>28</v>
@@ -33370,7 +33370,7 @@
         <v>40</v>
       </c>
       <c r="E334" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F334" s="4">
         <v>23</v>
@@ -33453,7 +33453,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>28</v>
@@ -33462,7 +33462,7 @@
         <v>40</v>
       </c>
       <c r="E335" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F335" s="4">
         <v>31</v>
@@ -33545,7 +33545,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>47</v>
@@ -33637,13 +33637,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>23</v>
@@ -33729,7 +33729,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>28</v>
@@ -33821,10 +33821,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>40</v>
@@ -33913,7 +33913,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>43</v>
@@ -33922,7 +33922,7 @@
         <v>22</v>
       </c>
       <c r="E340" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F340" s="4">
         <v>31</v>
@@ -34005,7 +34005,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>28</v>
@@ -34097,7 +34097,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>28</v>
@@ -34189,10 +34189,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>52</v>
@@ -34281,13 +34281,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>41</v>
@@ -34373,16 +34373,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E345" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F345" s="4">
         <v>27</v>
@@ -34465,16 +34465,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F346" s="4">
         <v>20</v>
@@ -34557,7 +34557,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>47</v>
@@ -34566,7 +34566,7 @@
         <v>62</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F347" s="4">
         <v>27</v>
@@ -34649,7 +34649,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>28</v>
@@ -34741,16 +34741,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D349" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F349" s="4">
         <v>24</v>
@@ -34833,7 +34833,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>28</v>
@@ -34925,7 +34925,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>28</v>
@@ -35017,7 +35017,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>28</v>
@@ -35026,7 +35026,7 @@
         <v>40</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F352" s="4">
         <v>33</v>
@@ -35109,16 +35109,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F353" s="4">
         <v>25</v>
@@ -35201,7 +35201,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>28</v>
@@ -35210,7 +35210,7 @@
         <v>40</v>
       </c>
       <c r="E354" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F354" s="4">
         <v>32</v>
@@ -35293,7 +35293,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>28</v>
@@ -35385,7 +35385,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>28</v>
@@ -35477,7 +35477,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>28</v>
@@ -35569,16 +35569,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D358" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E358" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F358" s="4">
         <v>28</v>
@@ -35661,7 +35661,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>28</v>
@@ -35670,7 +35670,7 @@
         <v>37</v>
       </c>
       <c r="E359" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F359" s="4">
         <v>30</v>
@@ -35753,13 +35753,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E360" s="4" t="s">
         <v>38</v>
@@ -35845,7 +35845,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>28</v>
@@ -35937,13 +35937,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>54</v>
@@ -36029,16 +36029,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C363" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D363" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E363" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F363" s="4">
         <v>26</v>
@@ -36121,10 +36121,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D364" s="4" t="s">
         <v>52</v>
@@ -36213,10 +36213,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>37</v>
@@ -36305,16 +36305,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E366" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F366" s="4">
         <v>26</v>
@@ -36397,7 +36397,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>28</v>
@@ -36406,7 +36406,7 @@
         <v>37</v>
       </c>
       <c r="E367" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F367" s="4">
         <v>27</v>
@@ -36489,7 +36489,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>28</v>
@@ -36498,7 +36498,7 @@
         <v>52</v>
       </c>
       <c r="E368" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F368" s="4">
         <v>31</v>
@@ -36581,16 +36581,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D369" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F369" s="4">
         <v>27</v>
@@ -36673,7 +36673,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>64</v>
@@ -36765,7 +36765,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>61</v>
@@ -36774,7 +36774,7 @@
         <v>40</v>
       </c>
       <c r="E371" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F371" s="4">
         <v>20</v>
@@ -36857,7 +36857,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>28</v>
@@ -36949,7 +36949,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>61</v>
@@ -37041,7 +37041,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>28</v>
@@ -37050,7 +37050,7 @@
         <v>40</v>
       </c>
       <c r="E374" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F374" s="4">
         <v>22</v>
@@ -37133,7 +37133,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>28</v>
@@ -37142,7 +37142,7 @@
         <v>40</v>
       </c>
       <c r="E375" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F375" s="4">
         <v>30</v>
@@ -37225,7 +37225,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>28</v>
@@ -37234,7 +37234,7 @@
         <v>22</v>
       </c>
       <c r="E376" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F376" s="4">
         <v>23</v>
@@ -37317,7 +37317,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>61</v>
@@ -37326,7 +37326,7 @@
         <v>22</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F377" s="4">
         <v>28</v>
@@ -37409,7 +37409,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>28</v>
@@ -37418,7 +37418,7 @@
         <v>40</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F378" s="4">
         <v>28</v>
@@ -37501,10 +37501,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>62</v>
@@ -37593,10 +37593,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>52</v>
@@ -37685,16 +37685,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C381" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D381" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F381" s="4">
         <v>30</v>
@@ -37777,10 +37777,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>37</v>
@@ -37869,16 +37869,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D383" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F383" s="4">
         <v>21</v>
@@ -37919,13 +37919,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C384" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>45</v>
@@ -38011,7 +38011,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>43</v>
@@ -38020,7 +38020,7 @@
         <v>40</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F385" s="4">
         <v>25</v>
@@ -38103,7 +38103,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>28</v>
@@ -38112,7 +38112,7 @@
         <v>40</v>
       </c>
       <c r="E386" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F386" s="4">
         <v>20</v>
@@ -38195,7 +38195,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>28</v>
@@ -38287,7 +38287,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>64</v>
@@ -38379,7 +38379,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>28</v>
@@ -38471,10 +38471,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C390" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D390" s="4" t="s">
         <v>22</v>
@@ -38563,10 +38563,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="D391" s="4" t="s">
         <v>37</v>
@@ -38655,13 +38655,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E392" s="4" t="s">
         <v>29</v>
@@ -38747,13 +38747,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="C393" s="4" t="s">
-        <v>484</v>
-      </c>
       <c r="D393" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E393" s="4" t="s">
         <v>26</v>
@@ -38839,10 +38839,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C394" s="4" t="s">
         <v>485</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>486</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>40</v>
@@ -38931,13 +38931,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E395" s="4" t="s">
         <v>38</v>
@@ -39023,7 +39023,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>28</v>
@@ -39032,7 +39032,7 @@
         <v>62</v>
       </c>
       <c r="E396" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F396" s="4">
         <v>27</v>
@@ -39115,10 +39115,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>40</v>
@@ -39207,7 +39207,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>28</v>
@@ -39299,7 +39299,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>28</v>
@@ -39308,7 +39308,7 @@
         <v>40</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F399" s="4">
         <v>30</v>
@@ -39391,7 +39391,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>28</v>
@@ -39400,7 +39400,7 @@
         <v>37</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F400" s="4">
         <v>21</v>
@@ -39483,7 +39483,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>28</v>
@@ -39492,7 +39492,7 @@
         <v>40</v>
       </c>
       <c r="E401" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F401" s="4">
         <v>30</v>
@@ -39575,13 +39575,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E402" s="4" t="s">
         <v>38</v>
@@ -39667,7 +39667,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>28</v>
@@ -39676,7 +39676,7 @@
         <v>40</v>
       </c>
       <c r="E403" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F403" s="4">
         <v>27</v>
@@ -39759,7 +39759,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>28</v>
@@ -39851,16 +39851,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F405" s="4">
         <v>20</v>
@@ -39943,7 +39943,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>28</v>
@@ -40035,13 +40035,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>31</v>
@@ -40127,7 +40127,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>28</v>
@@ -40136,7 +40136,7 @@
         <v>62</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F408" s="4">
         <v>20</v>
@@ -40219,7 +40219,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>21</v>
@@ -40311,7 +40311,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>28</v>
@@ -40320,7 +40320,7 @@
         <v>62</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F410" s="4">
         <v>26</v>
@@ -40403,13 +40403,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E411" s="4" t="s">
         <v>26</v>
@@ -40495,10 +40495,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>40</v>
@@ -40587,10 +40587,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>505</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>52</v>
@@ -40679,16 +40679,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F414" s="4">
         <v>22</v>
@@ -40771,16 +40771,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E415" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F415" s="4">
         <v>31</v>
@@ -40863,13 +40863,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E416" s="4" t="s">
         <v>29</v>
@@ -40955,16 +40955,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E417" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F417" s="4">
         <v>23</v>
@@ -41047,16 +41047,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F418" s="4">
         <v>30</v>
@@ -41139,7 +41139,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>61</v>
@@ -41148,7 +41148,7 @@
         <v>37</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F419" s="4">
         <v>28</v>
@@ -41231,7 +41231,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>28</v>
@@ -41323,10 +41323,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D421" s="4" t="s">
         <v>40</v>
@@ -41415,16 +41415,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D422" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F422" s="4">
         <v>26</v>
@@ -41507,13 +41507,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E423" s="4" t="s">
         <v>41</v>
@@ -41599,16 +41599,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F424" s="4">
         <v>26</v>
@@ -41691,7 +41691,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>28</v>
@@ -41700,7 +41700,7 @@
         <v>40</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F425" s="4">
         <v>29</v>
@@ -41783,7 +41783,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>28</v>
@@ -41792,7 +41792,7 @@
         <v>22</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F426" s="4">
         <v>24</v>
@@ -41875,13 +41875,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>31</v>
@@ -41967,16 +41967,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C428" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="C428" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="D428" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F428" s="4">
         <v>31</v>
@@ -42059,7 +42059,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>28</v>
@@ -42151,7 +42151,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>28</v>
@@ -42160,7 +42160,7 @@
         <v>44</v>
       </c>
       <c r="E430" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F430" s="4">
         <v>26</v>
@@ -42243,16 +42243,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C431" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C431" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="D431" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E431" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F431" s="4">
         <v>27</v>
@@ -42335,7 +42335,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>28</v>
@@ -42427,7 +42427,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>28</v>
@@ -42519,7 +42519,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>28</v>
@@ -42528,7 +42528,7 @@
         <v>37</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F434" s="4">
         <v>31</v>
@@ -42611,13 +42611,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>38</v>
@@ -42703,7 +42703,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>28</v>
@@ -42712,7 +42712,7 @@
         <v>62</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F436" s="4">
         <v>29</v>
@@ -42795,7 +42795,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>28</v>
@@ -42804,7 +42804,7 @@
         <v>62</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F437" s="4">
         <v>21</v>
@@ -42887,7 +42887,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>28</v>
@@ -42979,7 +42979,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>47</v>
@@ -42988,7 +42988,7 @@
         <v>52</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F439" s="4">
         <v>22</v>
@@ -43071,16 +43071,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D440" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F440" s="4">
         <v>22</v>
@@ -43163,7 +43163,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>28</v>
@@ -43172,7 +43172,7 @@
         <v>62</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F441" s="4">
         <v>24</v>
@@ -43255,7 +43255,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>28</v>
@@ -43347,7 +43347,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>61</v>
@@ -43356,7 +43356,7 @@
         <v>37</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F443" s="4">
         <v>34</v>
@@ -43439,7 +43439,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>28</v>
@@ -43448,7 +43448,7 @@
         <v>40</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F444" s="4">
         <v>19</v>
@@ -43531,7 +43531,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>28</v>
@@ -43540,7 +43540,7 @@
         <v>22</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F445" s="4">
         <v>26</v>
@@ -43621,16 +43621,16 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F446" s="4">
         <v>31</v>
@@ -43713,13 +43713,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>35</v>
@@ -43805,16 +43805,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D448" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F448" s="4">
         <v>20</v>
@@ -43897,7 +43897,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>28</v>
@@ -43989,7 +43989,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>64</v>
@@ -43998,7 +43998,7 @@
         <v>40</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F450" s="4">
         <v>29</v>
@@ -44081,7 +44081,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>28</v>
@@ -44173,7 +44173,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>28</v>
@@ -44265,7 +44265,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>61</v>
@@ -44274,7 +44274,7 @@
         <v>52</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F453" s="4">
         <v>29</v>
@@ -44357,13 +44357,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>35</v>
@@ -44449,13 +44449,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>26</v>
@@ -44541,7 +44541,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>28</v>
@@ -44633,13 +44633,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>54</v>
@@ -44725,7 +44725,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>28</v>
@@ -44817,16 +44817,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E459" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F459" s="4">
         <v>40</v>
@@ -44909,7 +44909,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>28</v>
@@ -45001,16 +45001,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F461" s="4">
         <v>23</v>
@@ -45093,7 +45093,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>28</v>
@@ -45185,7 +45185,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>28</v>
@@ -45194,7 +45194,7 @@
         <v>40</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F463" s="4">
         <v>19</v>
@@ -45277,7 +45277,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>64</v>
@@ -45286,7 +45286,7 @@
         <v>37</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F464" s="4">
         <v>25</v>
@@ -45369,13 +45369,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>31</v>
@@ -45461,7 +45461,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>28</v>
@@ -45470,7 +45470,7 @@
         <v>40</v>
       </c>
       <c r="E466" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F466" s="4">
         <v>20</v>
@@ -45553,7 +45553,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>28</v>
@@ -45562,7 +45562,7 @@
         <v>40</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F467" s="4">
         <v>29</v>
@@ -45645,7 +45645,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>28</v>
@@ -45654,7 +45654,7 @@
         <v>52</v>
       </c>
       <c r="E468" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F468" s="4">
         <v>20</v>
@@ -45695,7 +45695,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>28</v>
@@ -45704,7 +45704,7 @@
         <v>37</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F469" s="4">
         <v>21</v>
@@ -45787,13 +45787,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="C470" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="C470" s="4" t="s">
-        <v>560</v>
-      </c>
       <c r="D470" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E470" s="4" t="s">
         <v>23</v>
@@ -45879,7 +45879,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>28</v>
@@ -45971,7 +45971,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>28</v>
@@ -46063,7 +46063,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>28</v>
@@ -46155,10 +46155,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D474" s="4" t="s">
         <v>62</v>
@@ -46247,13 +46247,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>41</v>
@@ -46339,10 +46339,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>567</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>62</v>
@@ -46431,16 +46431,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F477" s="4">
         <v>24</v>
@@ -46523,10 +46523,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>37</v>
@@ -46615,7 +46615,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>28</v>
@@ -46707,13 +46707,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>41</v>
@@ -46799,7 +46799,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>28</v>
@@ -46808,7 +46808,7 @@
         <v>22</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F481" s="4">
         <v>41</v>
@@ -46891,10 +46891,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>40</v>
@@ -46983,16 +46983,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F483" s="4">
         <v>31</v>
@@ -47075,16 +47075,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D484" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F484" s="4">
         <v>23</v>
@@ -47167,7 +47167,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>61</v>
@@ -47259,7 +47259,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>28</v>
@@ -47268,7 +47268,7 @@
         <v>44</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F486" s="4">
         <v>28</v>
@@ -47351,7 +47351,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>28</v>
@@ -47443,7 +47443,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>28</v>
@@ -47535,7 +47535,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>61</v>
@@ -47544,7 +47544,7 @@
         <v>62</v>
       </c>
       <c r="E489" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F489" s="4">
         <v>31</v>
@@ -47627,7 +47627,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>47</v>
@@ -47719,7 +47719,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>28</v>
@@ -47728,7 +47728,7 @@
         <v>40</v>
       </c>
       <c r="E491" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F491" s="4">
         <v>20</v>
@@ -47811,7 +47811,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>28</v>
@@ -47903,7 +47903,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>28</v>
@@ -47912,7 +47912,7 @@
         <v>52</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F493" s="4">
         <v>24</v>
@@ -47995,16 +47995,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C494" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="C494" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="D494" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F494" s="4">
         <v>20</v>
@@ -48087,13 +48087,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E495" s="4" t="s">
         <v>54</v>
@@ -48179,7 +48179,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>28</v>
@@ -48188,7 +48188,7 @@
         <v>40</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F496" s="4">
         <v>22</v>
@@ -48271,13 +48271,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E497" s="4" t="s">
         <v>23</v>
@@ -48363,7 +48363,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>28</v>
@@ -48455,13 +48455,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E499" s="4" t="s">
         <v>23</v>
@@ -48547,7 +48547,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>28</v>
